--- a/results/AMPLI/2021_stats.xlsx
+++ b/results/AMPLI/2021_stats.xlsx
@@ -474,16 +474,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2">
-        <v>1.034</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.365</v>
+        <v>1.311</v>
       </c>
       <c r="G2">
-        <v>0.5629999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H2">
         <v>62.25</v>
@@ -506,25 +506,25 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E3">
-        <v>30.312</v>
+        <v>30.296</v>
       </c>
       <c r="F3">
-        <v>59.131</v>
+        <v>59.168</v>
       </c>
       <c r="G3">
         <v>15.332</v>
       </c>
       <c r="H3">
-        <v>586.104</v>
+        <v>586.015</v>
       </c>
       <c r="I3">
-        <v>626.769</v>
+        <v>627.251</v>
       </c>
       <c r="J3">
-        <v>397.5</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -538,25 +538,25 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E4">
-        <v>23.497</v>
+        <v>23.462</v>
       </c>
       <c r="F4">
-        <v>20.881</v>
+        <v>20.895</v>
       </c>
       <c r="G4">
-        <v>17.741</v>
+        <v>17.679</v>
       </c>
       <c r="H4">
-        <v>543.859</v>
+        <v>542.495</v>
       </c>
       <c r="I4">
-        <v>532.616</v>
+        <v>532.299</v>
       </c>
       <c r="J4">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E6">
-        <v>1.182</v>
+        <v>1.185</v>
       </c>
       <c r="F6">
-        <v>3.56</v>
+        <v>3.564</v>
       </c>
       <c r="G6">
         <v>0.326</v>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E7">
         <v>0.008999999999999999</v>
@@ -666,25 +666,25 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E8">
-        <v>0.849</v>
+        <v>0.611</v>
       </c>
       <c r="F8">
-        <v>4.089</v>
+        <v>3.629</v>
       </c>
       <c r="G8">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>160.375</v>
+        <v>136.143</v>
       </c>
       <c r="I8">
-        <v>238.877</v>
+        <v>247.168</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -727,25 +727,25 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>4521</v>
+        <v>4455</v>
       </c>
       <c r="E10">
-        <v>15.26</v>
+        <v>13.964</v>
       </c>
       <c r="F10">
-        <v>38.543</v>
+        <v>29.733</v>
       </c>
       <c r="G10">
-        <v>4.616</v>
+        <v>4.49</v>
       </c>
       <c r="H10">
-        <v>551.698</v>
+        <v>550.813</v>
       </c>
       <c r="I10">
-        <v>561.401</v>
+        <v>561.481</v>
       </c>
       <c r="J10">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
